--- a/planning/TASKS_InstrumentToolkit.xlsx
+++ b/planning/TASKS_InstrumentToolkit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -81,10 +81,16 @@
     <t>Develop support for 4G communications form the PI3 hub or integrated monitoring station.</t>
   </si>
   <si>
-    <t>EnviroDIY Target Node</t>
-  </si>
-  <si>
     <t>Develop a target node which posts data to ODM2 Data Portal</t>
+  </si>
+  <si>
+    <t>MyWatershedTarget Node</t>
+  </si>
+  <si>
+    <t>Modular VDAB Publisher</t>
+  </si>
+  <si>
+    <t>Develop a modular publisher library compatible with EnviroDIY modular sensor library.</t>
   </si>
 </sst>
 </file>
@@ -424,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -466,21 +472,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>43647</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>43647</v>
@@ -489,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -500,7 +506,7 @@
         <v>43647</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -508,49 +514,49 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
-        <v>43661</v>
+        <v>43678</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>43678</v>
+        <v>43661</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>43692</v>
+        <v>43678</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>43692</v>
@@ -559,6 +565,20 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43692</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
       </c>
     </row>

--- a/planning/TASKS_InstrumentToolkit.xlsx
+++ b/planning/TASKS_InstrumentToolkit.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Task</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Due</t>
-  </si>
-  <si>
     <t>Develop specialized nodes that signal alerting conditions based on deviation from previous metric patterns</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Develop an integration node and other components to integrate with and input data from the EnviroDIY Mayfly data logger</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>Develop support for 4G communications form the PI3 hub or integrated monitoring station.</t>
   </si>
   <si>
-    <t>Develop a target node which posts data to ODM2 Data Portal</t>
-  </si>
-  <si>
     <t>MyWatershedTarget Node</t>
   </si>
   <si>
@@ -91,6 +82,30 @@
   </si>
   <si>
     <t>Develop a modular publisher library compatible with EnviroDIY modular sensor library.</t>
+  </si>
+  <si>
+    <t>Proposed</t>
+  </si>
+  <si>
+    <t>DueAsDate</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>%Complete</t>
+  </si>
+  <si>
+    <t>Integrate Depth Sensor</t>
+  </si>
+  <si>
+    <t>Select, integrate and test a Depth Sensor with the standalone Mayfly Data Logger</t>
+  </si>
+  <si>
+    <t>Develop a target node which posts data to the Monitor My Watershed ODM2 Data Portal</t>
+  </si>
+  <si>
+    <t>DueDate</t>
   </si>
 </sst>
 </file>
@@ -126,9 +141,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,156 +459,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>TEXT(D2,"DD-MMM-YY")</f>
+        <v>01-May-19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43586</v>
+      </c>
+      <c r="E2" s="3">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>TEXT(D3,"DD-MMM-YY")</f>
+        <v>01-Jul-19</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43647</v>
+      </c>
+      <c r="E3" s="3">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>TEXT(D4,"DD-MMM-YY")</f>
+        <v>01-Jul-19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43647</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>TEXT(D5,"DD-MMM-YY")</f>
+        <v>15-Jul-19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43661</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>TEXT(D6,"DD-MMM-YY")</f>
+        <v>15-Aug-19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43692</v>
+      </c>
+      <c r="E6" s="3">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43586</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C7" s="2" t="str">
+        <f>TEXT(D7,"DD-MMM-YY")</f>
+        <v>01-Aug-19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43678</v>
+      </c>
+      <c r="E7" s="3">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>TEXT(D8,"DD-MMM-YY")</f>
+        <v>15-Aug-19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43692</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>TEXT(D9,"DD-MMM-YY")</f>
+        <v>15-Aug-19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43692</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="G11" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43647</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43647</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43647</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43678</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>43661</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43678</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43692</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43692</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +728,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -606,7 +740,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
